--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>321.1890463333334</v>
+        <v>0.008135666666666668</v>
       </c>
       <c r="H2">
-        <v>963.5671390000001</v>
+        <v>0.024407</v>
       </c>
       <c r="I2">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="J2">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>263.9035463333333</v>
+        <v>0.1293233333333333</v>
       </c>
       <c r="N2">
-        <v>791.710639</v>
+        <v>0.38797</v>
       </c>
       <c r="O2">
-        <v>0.9572387917213622</v>
+        <v>0.02793463826022293</v>
       </c>
       <c r="P2">
-        <v>0.9572387917213622</v>
+        <v>0.02793463826022293</v>
       </c>
       <c r="Q2">
-        <v>84762.92837078798</v>
+        <v>0.001052131532222222</v>
       </c>
       <c r="R2">
-        <v>762866.355337092</v>
+        <v>0.009469183790000002</v>
       </c>
       <c r="S2">
-        <v>0.7741878570461564</v>
+        <v>3.283964702903889E-06</v>
       </c>
       <c r="T2">
-        <v>0.7741878570461564</v>
+        <v>3.283964702903888E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>321.1890463333334</v>
+        <v>0.008135666666666668</v>
       </c>
       <c r="H3">
-        <v>963.5671390000001</v>
+        <v>0.024407</v>
       </c>
       <c r="I3">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="J3">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.916052</v>
       </c>
       <c r="O3">
-        <v>0.003525730179150291</v>
+        <v>0.2099617438667928</v>
       </c>
       <c r="P3">
-        <v>0.003525730179150291</v>
+        <v>0.2099617438667928</v>
       </c>
       <c r="Q3">
-        <v>312.2013203128031</v>
+        <v>0.007908009018222225</v>
       </c>
       <c r="R3">
-        <v>2809.811882815228</v>
+        <v>0.07117208116400001</v>
       </c>
       <c r="S3">
-        <v>0.002851511572165647</v>
+        <v>2.468286681916718E-05</v>
       </c>
       <c r="T3">
-        <v>0.002851511572165647</v>
+        <v>2.468286681916717E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>321.1890463333334</v>
+        <v>0.008135666666666668</v>
       </c>
       <c r="H4">
-        <v>963.5671390000001</v>
+        <v>0.024407</v>
       </c>
       <c r="I4">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="J4">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8260933333333335</v>
+        <v>1.000161333333333</v>
       </c>
       <c r="N4">
-        <v>2.47828</v>
+        <v>3.000484</v>
       </c>
       <c r="O4">
-        <v>0.002996430306587326</v>
+        <v>0.2160410215882329</v>
       </c>
       <c r="P4">
-        <v>0.002996430306587326</v>
+        <v>0.2160410215882329</v>
       </c>
       <c r="Q4">
-        <v>265.3321299156578</v>
+        <v>0.00813697922088889</v>
       </c>
       <c r="R4">
-        <v>2387.989169240921</v>
+        <v>0.073232812988</v>
       </c>
       <c r="S4">
-        <v>0.002423428697110572</v>
+        <v>2.539753988099047E-05</v>
       </c>
       <c r="T4">
-        <v>0.002423428697110572</v>
+        <v>2.539753988099046E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>321.1890463333334</v>
+        <v>0.008135666666666668</v>
       </c>
       <c r="H5">
-        <v>963.5671390000001</v>
+        <v>0.024407</v>
       </c>
       <c r="I5">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="J5">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.990833333333333</v>
+        <v>2.527995333333333</v>
       </c>
       <c r="N5">
-        <v>29.9725</v>
+        <v>7.583985999999999</v>
       </c>
       <c r="O5">
-        <v>0.03623904779290016</v>
+        <v>0.5460625962847514</v>
       </c>
       <c r="P5">
-        <v>0.03623904779290017</v>
+        <v>0.5460625962847514</v>
       </c>
       <c r="Q5">
-        <v>3208.946230408611</v>
+        <v>0.02056692736688889</v>
       </c>
       <c r="R5">
-        <v>28880.5160736775</v>
+        <v>0.185102346302</v>
       </c>
       <c r="S5">
-        <v>0.02930912432176615</v>
+        <v>6.419450558372361E-05</v>
       </c>
       <c r="T5">
-        <v>0.02930912432176616</v>
+        <v>6.41945055837236E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.040577</v>
       </c>
       <c r="I6">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="J6">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>263.9035463333333</v>
+        <v>0.1293233333333333</v>
       </c>
       <c r="N6">
-        <v>791.710639</v>
+        <v>0.38797</v>
       </c>
       <c r="O6">
-        <v>0.9572387917213622</v>
+        <v>0.02793463826022293</v>
       </c>
       <c r="P6">
-        <v>0.9572387917213622</v>
+        <v>0.02793463826022293</v>
       </c>
       <c r="Q6">
-        <v>3.569471399855888</v>
+        <v>0.001749184298888889</v>
       </c>
       <c r="R6">
-        <v>32.125242598703</v>
+        <v>0.01574265869</v>
       </c>
       <c r="S6">
-        <v>3.260200499153997E-05</v>
+        <v>5.459640092995087E-06</v>
       </c>
       <c r="T6">
-        <v>3.260200499153997E-05</v>
+        <v>5.459640092995086E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.040577</v>
       </c>
       <c r="I7">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="J7">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.916052</v>
       </c>
       <c r="O7">
-        <v>0.003525730179150291</v>
+        <v>0.2099617438667928</v>
       </c>
       <c r="P7">
-        <v>0.003525730179150291</v>
+        <v>0.2099617438667928</v>
       </c>
       <c r="Q7">
         <v>0.01314718244488889</v>
@@ -883,10 +883,10 @@
         <v>0.118324642004</v>
       </c>
       <c r="S7">
-        <v>1.200806673252121E-07</v>
+        <v>4.103563268412121E-05</v>
       </c>
       <c r="T7">
-        <v>1.200806673252121E-07</v>
+        <v>4.103563268412121E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.040577</v>
       </c>
       <c r="I8">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="J8">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8260933333333335</v>
+        <v>1.000161333333333</v>
       </c>
       <c r="N8">
-        <v>2.47828</v>
+        <v>3.000484</v>
       </c>
       <c r="O8">
-        <v>0.002996430306587326</v>
+        <v>0.2160410215882329</v>
       </c>
       <c r="P8">
-        <v>0.002996430306587326</v>
+        <v>0.2160410215882329</v>
       </c>
       <c r="Q8">
-        <v>0.01117346306222222</v>
+        <v>0.01352784880755555</v>
       </c>
       <c r="R8">
-        <v>0.10056116756</v>
+        <v>0.121750639268</v>
       </c>
       <c r="S8">
-        <v>1.020535697644372E-07</v>
+        <v>4.222378726393862E-05</v>
       </c>
       <c r="T8">
-        <v>1.020535697644372E-07</v>
+        <v>4.222378726393862E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.040577</v>
       </c>
       <c r="I9">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="J9">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.990833333333333</v>
+        <v>2.527995333333333</v>
       </c>
       <c r="N9">
-        <v>29.9725</v>
+        <v>7.583985999999999</v>
       </c>
       <c r="O9">
-        <v>0.03623904779290016</v>
+        <v>0.5460625962847514</v>
       </c>
       <c r="P9">
-        <v>0.03623904779290017</v>
+        <v>0.5460625962847514</v>
       </c>
       <c r="Q9">
-        <v>0.1351326813888889</v>
+        <v>0.03419282221355555</v>
       </c>
       <c r="R9">
-        <v>1.2161941325</v>
+        <v>0.307735399922</v>
       </c>
       <c r="S9">
-        <v>1.234243354166839E-06</v>
+        <v>0.0001067243189687693</v>
       </c>
       <c r="T9">
-        <v>1.234243354166839E-06</v>
+        <v>0.0001067243189687693</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.92922466666666</v>
+        <v>69.18337766666667</v>
       </c>
       <c r="H10">
-        <v>227.787674</v>
+        <v>207.550133</v>
       </c>
       <c r="I10">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440035</v>
       </c>
       <c r="J10">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440034</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>263.9035463333333</v>
+        <v>0.1293233333333333</v>
       </c>
       <c r="N10">
-        <v>791.710639</v>
+        <v>0.38797</v>
       </c>
       <c r="O10">
-        <v>0.9572387917213622</v>
+        <v>0.02793463826022293</v>
       </c>
       <c r="P10">
-        <v>0.9572387917213622</v>
+        <v>0.02793463826022293</v>
       </c>
       <c r="Q10">
-        <v>20037.99165987374</v>
+        <v>8.947025011112224</v>
       </c>
       <c r="R10">
-        <v>180341.9249388637</v>
+        <v>80.52322510001001</v>
       </c>
       <c r="S10">
-        <v>0.1830183326702141</v>
+        <v>0.02792589465542703</v>
       </c>
       <c r="T10">
-        <v>0.1830183326702141</v>
+        <v>0.02792589465542703</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.92922466666666</v>
+        <v>69.18337766666667</v>
       </c>
       <c r="H11">
-        <v>227.787674</v>
+        <v>207.550133</v>
       </c>
       <c r="I11">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440035</v>
       </c>
       <c r="J11">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.916052</v>
       </c>
       <c r="O11">
-        <v>0.003525730179150291</v>
+        <v>0.2099617438667928</v>
       </c>
       <c r="P11">
-        <v>0.003525730179150291</v>
+        <v>0.2099617438667928</v>
       </c>
       <c r="Q11">
-        <v>73.80452248256088</v>
+        <v>67.24744227054623</v>
       </c>
       <c r="R11">
-        <v>664.2407023430479</v>
+        <v>605.2269804349161</v>
       </c>
       <c r="S11">
-        <v>0.0006740985263173194</v>
+        <v>0.2098960253672895</v>
       </c>
       <c r="T11">
-        <v>0.0006740985263173194</v>
+        <v>0.2098960253672895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.92922466666666</v>
+        <v>69.18337766666667</v>
       </c>
       <c r="H12">
-        <v>227.787674</v>
+        <v>207.550133</v>
       </c>
       <c r="I12">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440035</v>
       </c>
       <c r="J12">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440034</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8260933333333335</v>
+        <v>1.000161333333333</v>
       </c>
       <c r="N12">
-        <v>2.47828</v>
+        <v>3.000484</v>
       </c>
       <c r="O12">
-        <v>0.002996430306587326</v>
+        <v>0.2160410215882329</v>
       </c>
       <c r="P12">
-        <v>0.002996430306587326</v>
+        <v>0.2160410215882329</v>
       </c>
       <c r="Q12">
-        <v>62.72462630230222</v>
+        <v>69.19453925159689</v>
       </c>
       <c r="R12">
-        <v>564.52163672072</v>
+        <v>622.750853264372</v>
       </c>
       <c r="S12">
-        <v>0.0005728995559069888</v>
+        <v>0.215973400261088</v>
       </c>
       <c r="T12">
-        <v>0.0005728995559069888</v>
+        <v>0.215973400261088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.92922466666666</v>
+        <v>69.18337766666667</v>
       </c>
       <c r="H13">
-        <v>227.787674</v>
+        <v>207.550133</v>
       </c>
       <c r="I13">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440035</v>
       </c>
       <c r="J13">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440034</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.990833333333333</v>
+        <v>2.527995333333333</v>
       </c>
       <c r="N13">
-        <v>29.9725</v>
+        <v>7.583985999999999</v>
       </c>
       <c r="O13">
-        <v>0.03623904779290016</v>
+        <v>0.5460625962847514</v>
       </c>
       <c r="P13">
-        <v>0.03623904779290017</v>
+        <v>0.5460625962847514</v>
       </c>
       <c r="Q13">
-        <v>758.5962287738887</v>
+        <v>174.8952558855709</v>
       </c>
       <c r="R13">
-        <v>6827.366058965</v>
+        <v>1574.057302970138</v>
       </c>
       <c r="S13">
-        <v>0.006928689227779838</v>
+        <v>0.545891677460199</v>
       </c>
       <c r="T13">
-        <v>0.006928689227779839</v>
+        <v>0.545891677460199</v>
       </c>
     </row>
   </sheetData>
